--- a/GucInternshipSystem.xlsx
+++ b/GucInternshipSystem.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maiha\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\GitHub\Git-Push-No-Regrets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4459447-EB35-4618-9ED2-5A12635CA74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241A2EC0-1471-46B1-91BF-C1B4C8A28A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functional Requirements Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Team Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="172">
   <si>
     <t>Module</t>
   </si>
@@ -499,13 +498,79 @@
   </si>
   <si>
     <t>41,47</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>58-22672</t>
+  </si>
+  <si>
+    <t>58-21524</t>
+  </si>
+  <si>
+    <t>yasmeen.elabsawy@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>Yasmeen Tarek</t>
+  </si>
+  <si>
+    <t>Mai Hazem</t>
+  </si>
+  <si>
+    <t>Esraa Tarek</t>
+  </si>
+  <si>
+    <t>Hana Ayman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esraa.mohamed@student.guc.edu.eg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mai.elmenshawy@student.guc.edu.eg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malak.elkady@student.guc.edu.eg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hana.abdelazim@student.guc.edu.eg </t>
+  </si>
+  <si>
+    <t>58-4701</t>
+  </si>
+  <si>
+    <t>58-4971</t>
+  </si>
+  <si>
+    <t>58-0963</t>
+  </si>
+  <si>
+    <t>Malak El-Kady</t>
+  </si>
+  <si>
+    <t>Git Push, No Regrets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,8 +644,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -614,12 +723,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -656,20 +781,38 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F12538C6-13A4-4A0B-A7B0-C6D57BF99284}"/>
   </cellStyles>
@@ -955,44 +1098,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="91" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" customWidth="1"/>
-    <col min="5" max="5" width="120.54296875" customWidth="1"/>
-    <col min="6" max="6" width="102.26953125" customWidth="1"/>
-    <col min="7" max="7" width="198.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="5" max="5" width="120.5546875" customWidth="1"/>
+    <col min="6" max="6" width="102.21875" customWidth="1"/>
+    <col min="7" max="7" width="198.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1002,9 +1145,9 @@
       <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1168,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1189,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1281,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,7 +1350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1297,147 +1440,147 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1483,7 +1626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1506,7 +1649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1529,7 +1672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +1718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1598,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1622,7 +1765,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1646,7 +1789,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1669,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>65</v>
       </c>
@@ -1692,7 +1835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -1715,7 +1858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>65</v>
       </c>
@@ -1738,7 +1881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
@@ -1761,7 +1904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -1784,7 +1927,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>65</v>
       </c>
@@ -1807,7 +1950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -1830,7 +1973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -1853,7 +1996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -1876,7 +2019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -1899,7 +2042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
@@ -1922,7 +2065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -1945,7 +2088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -1968,7 +2111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -1991,7 +2134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -2014,7 +2157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -2036,7 +2179,7 @@
       <c r="G48" s="1"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>93</v>
       </c>
@@ -2060,7 +2203,7 @@
       </c>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -2083,7 +2226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2106,7 +2249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -2129,7 +2272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2138,29 +2281,29 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
@@ -2183,7 +2326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
@@ -2206,7 +2349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +2395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
@@ -2344,7 +2487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -2367,7 +2510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>19</v>
       </c>
@@ -2505,7 +2648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>19</v>
       </c>
@@ -2528,7 +2671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -2551,7 +2694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>19</v>
       </c>
@@ -2574,7 +2717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
@@ -2597,7 +2740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -2620,7 +2763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -2643,7 +2786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>19</v>
       </c>
@@ -2666,7 +2809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -2689,7 +2832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>19</v>
       </c>
@@ -2712,7 +2855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>19</v>
       </c>
@@ -2735,7 +2878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>19</v>
       </c>
@@ -2781,7 +2924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +2947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>19</v>
       </c>
@@ -2827,7 +2970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>19</v>
       </c>
@@ -2850,7 +2993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2873,7 +3016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2896,7 +3039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>19</v>
       </c>
@@ -2919,7 +3062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>19</v>
       </c>
@@ -2942,7 +3085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
@@ -2965,7 +3108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -2988,7 +3131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>19</v>
       </c>
@@ -3011,7 +3154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>19</v>
       </c>
@@ -3034,7 +3177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>19</v>
       </c>
@@ -3057,7 +3200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>19</v>
       </c>
@@ -3080,7 +3223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +3246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,7 +3269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>19</v>
       </c>
@@ -3149,7 +3292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>19</v>
       </c>
@@ -3172,7 +3315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -3195,7 +3338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -3218,7 +3361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -3241,7 +3384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -3264,7 +3407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -3287,7 +3430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -3310,7 +3453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -3333,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +3499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>19</v>
       </c>
@@ -3379,7 +3522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>19</v>
       </c>
@@ -3402,7 +3545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -3425,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
@@ -3448,7 +3591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>19</v>
       </c>
@@ -3471,7 +3614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
@@ -3517,7 +3660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
@@ -3563,7 +3706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>19</v>
       </c>
@@ -3586,7 +3729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -3609,7 +3752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>19</v>
       </c>
@@ -3632,7 +3775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>19</v>
       </c>
@@ -3655,7 +3798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>19</v>
       </c>
@@ -3678,7 +3821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3687,535 +3830,535 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4232,4 +4375,157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486A1B2C-D8E1-4B2F-8DE8-E8DA24CFDB8F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="27">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{AB759BA7-A730-4CC6-881B-2556AA4BE8ED}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{A37C7BD4-0425-44FD-B002-0054F57C94F0}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{96F88CC8-2615-427B-BA81-45B4EA6B2D67}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{24E8FE02-3427-47D6-AE85-391BD80C93A7}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{BF07CD44-477C-423B-8F7F-EA5A153DCCC1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>